--- a/data/trans_bre/P22_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P22_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.059001254239368</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.341809308963671</v>
+        <v>5.341809308963666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.02934538337747979</v>
@@ -649,7 +649,7 @@
         <v>0.5191531881287339</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2539237577061025</v>
+        <v>0.2539237577061022</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.243687235229079</v>
+        <v>-5.530328590462071</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.341382980064117</v>
+        <v>-3.770638634955144</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3397443534214174</v>
+        <v>0.2323362995722788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.20438000489728</v>
+        <v>0.3213983632917545</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3582566011267662</v>
+        <v>-0.3747483617886189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2914684753349259</v>
+        <v>-0.3106042432698705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01708853946311008</v>
+        <v>0.01183882778732965</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.004855138937722053</v>
+        <v>0.01718830646332593</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.546056249760766</v>
+        <v>4.668324847284863</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.125743076553148</v>
+        <v>5.778237401508466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.03863269030284</v>
+        <v>10.5596815665957</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.09835329915064</v>
+        <v>9.946435956590108</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4216174609200659</v>
+        <v>0.4246484517316383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8005732628311245</v>
+        <v>0.7316856847222313</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.257607559044389</v>
+        <v>1.337226545361776</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5390505126024593</v>
+        <v>0.546370056617186</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.168449929658975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4384906108642395</v>
+        <v>0.4384906108642422</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1037337462417092</v>
@@ -749,7 +749,7 @@
         <v>0.5116922032512926</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02192170136428596</v>
+        <v>0.0219217013642861</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.735758210486281</v>
+        <v>-6.026656828729327</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.888404773627351</v>
+        <v>-3.553305873705294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9801401692300347</v>
+        <v>-0.9377534316916382</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.859355116357394</v>
+        <v>-4.128384990892239</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4341196769412393</v>
+        <v>-0.4713579775811073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3639311937449434</v>
+        <v>-0.3431176004913726</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1432239615026725</v>
+        <v>-0.1200678307465896</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.207775002643647</v>
+        <v>-0.1885106847564137</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.825033526044552</v>
+        <v>3.517157061442928</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.317911870530961</v>
+        <v>5.449159163581474</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.362697323187782</v>
+        <v>7.218915388325136</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.763716685639113</v>
+        <v>5.625153617806992</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5349153697303124</v>
+        <v>0.4292038145907067</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8391988204159052</v>
+        <v>0.7871339051576794</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.753253516675047</v>
+        <v>1.689744919472959</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3499599800072632</v>
+        <v>0.3186108667010693</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.916637573252774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.997159814712409</v>
+        <v>2.997159814712405</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.8005988213125579</v>
@@ -849,7 +849,7 @@
         <v>0.6965179805153252</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4209390219667187</v>
+        <v>0.420939021966718</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.773963525990339</v>
+        <v>-7.846512822726148</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.615577656683667</v>
+        <v>-2.754918370224527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9427965562661008</v>
+        <v>-1.04149026142858</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8255825384296456</v>
+        <v>-0.9199548535388725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5212120060242285</v>
+        <v>-0.5576786413102458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3332812805458358</v>
+        <v>-0.3971121213957579</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1099041753612712</v>
+        <v>-0.1165024861600904</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.256128989653807</v>
+        <v>-2.148770829954266</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.468807751605099</v>
+        <v>3.121226187515654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.799356541302622</v>
+        <v>6.404002371870973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.63761796431318</v>
+        <v>7.262466152551554</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2036414468245819</v>
+        <v>-0.2237892978690842</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.154009336954686</v>
+        <v>0.999587117279332</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.165163171753239</v>
+        <v>3.694957116299891</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.328957165090565</v>
+        <v>1.287564247519877</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.465361230930426</v>
+        <v>-2.418936814527753</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.210185979878991</v>
+        <v>-1.152943822707157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7994534478703564</v>
+        <v>-0.742033916991319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.688126308394856</v>
+        <v>1.693792367911069</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.446397423125871</v>
+        <v>-0.4428920405395517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3149772737190248</v>
+        <v>-0.2974169144535118</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3792333881849185</v>
+        <v>-0.355073667404134</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2981773778355211</v>
+        <v>0.2993482580788634</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.369768711744366</v>
+        <v>1.576356572140515</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.468774173112397</v>
+        <v>2.378110284601256</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.006835985443113</v>
+        <v>2.020718444634974</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.075951006488727</v>
+        <v>6.213310176877009</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3469883912304489</v>
+        <v>0.4087013433463533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9304974849467582</v>
+        <v>0.9191038034661846</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.706646715464324</v>
+        <v>1.728464789328551</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.570386992698468</v>
+        <v>1.684222302128821</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.5572739309153242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4571422342369388</v>
+        <v>0.4571422342369396</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4213771775241055</v>
@@ -1049,7 +1049,7 @@
         <v>0.4793261996752063</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1466324604545774</v>
+        <v>0.1466324604545777</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.039425091447602</v>
+        <v>-5.275862406285499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.547733448664043</v>
+        <v>-1.498270977423449</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8379980984912734</v>
+        <v>-0.7521745941594924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.722738349122859</v>
+        <v>-1.664838356958758</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7326538660281546</v>
+        <v>-0.7437759414782205</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6518601750190288</v>
+        <v>-0.6499394168839364</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5232032315711217</v>
+        <v>-0.5169565234135142</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3703442955023153</v>
+        <v>-0.3877631297061401</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4317171377502858</v>
+        <v>0.4591194242442915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.245720413503967</v>
+        <v>1.273638719281142</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.92763837451985</v>
+        <v>1.81481006201486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.074225828469621</v>
+        <v>2.29681706276941</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1961575917399764</v>
+        <v>0.2152966346522618</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.894955191505054</v>
+        <v>1.760748405032025</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.322628177485913</v>
+        <v>2.949349533868602</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.038856422608862</v>
+        <v>1.146816468087573</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.977376589463727</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-2.723517672615013</v>
+        <v>-2.723517672615012</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.196104864056476</v>
@@ -1149,7 +1149,7 @@
         <v>-0.4358171431862202</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3678059941652873</v>
+        <v>-0.3678059941652872</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4698076774573773</v>
+        <v>0.3615332000524733</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.620817565821659</v>
+        <v>-1.606445657718357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.410416581191351</v>
+        <v>-5.019079956820796</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-11.48403006019399</v>
+        <v>-10.88312205826637</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09456611034464063</v>
+        <v>0.06687779796029655</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5019690373440515</v>
+        <v>-0.4268539524249351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7400421015425681</v>
+        <v>-0.724019514865438</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7328779288617212</v>
+        <v>-0.7186315250623885</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.124698607066237</v>
+        <v>4.141165099796388</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.348972616619954</v>
+        <v>2.450909484224994</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1682649713626276</v>
+        <v>0.2428178318579514</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.505132259337903</v>
+        <v>2.098043271929165</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.500670142447287</v>
+        <v>4.313787698009905</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.190316583118773</v>
+        <v>2.973517274197297</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09653090901242929</v>
+        <v>0.14633867747301</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4451576154917262</v>
+        <v>0.7721353656371768</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.566338221378903</v>
+        <v>-2.506159811262989</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.462039469410224</v>
+        <v>-1.484162494494441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1322395796139839</v>
+        <v>-0.170508303956537</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.958606446106652</v>
+        <v>-0.9244212776637792</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3561993772947503</v>
+        <v>-0.3465801586847629</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2769519480813569</v>
+        <v>-0.2776004472535774</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.03332407234952509</v>
+        <v>-0.04460217314848794</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.09104023660103158</v>
+        <v>-0.08556070962002679</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2680186643938235</v>
+        <v>-0.1372018257044296</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6274394781844964</v>
+        <v>0.6347884129996768</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.760273265024427</v>
+        <v>1.756706032316698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.943055775225437</v>
+        <v>1.943627341004005</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.04467965898627918</v>
+        <v>-0.02326643504183151</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1562410114148802</v>
+        <v>0.1566479937216493</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5816694829023265</v>
+        <v>0.5783148632741469</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2159075751555105</v>
+        <v>0.2162324640842923</v>
       </c>
     </row>
     <row r="25">
